--- a/Code/Results/Cases/Case_7_17/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_17/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.612080899840066</v>
+        <v>2.612080899840009</v>
       </c>
       <c r="C2">
-        <v>0.4363717429110352</v>
+        <v>0.4363717429098131</v>
       </c>
       <c r="D2">
-        <v>0.3901050995734039</v>
+        <v>0.3901050995736455</v>
       </c>
       <c r="E2">
-        <v>0.03724914421915915</v>
+        <v>0.03724914421922398</v>
       </c>
       <c r="F2">
-        <v>6.695904829511278</v>
+        <v>6.69590482951125</v>
       </c>
       <c r="G2">
-        <v>0.000813880519884246</v>
+        <v>0.0008138805198904798</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1481602075847519</v>
+        <v>0.1481602075847448</v>
       </c>
       <c r="M2">
         <v>0.4326980422203164</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.261558315376362</v>
+        <v>2.261558315376703</v>
       </c>
       <c r="C3">
-        <v>0.3745524852385813</v>
+        <v>0.3745524852392919</v>
       </c>
       <c r="D3">
-        <v>0.3543091024112499</v>
+        <v>0.3543091024112215</v>
       </c>
       <c r="E3">
-        <v>0.03581014754305745</v>
+        <v>0.03581014754310274</v>
       </c>
       <c r="F3">
-        <v>5.94635928568664</v>
+        <v>5.946359285686668</v>
       </c>
       <c r="G3">
-        <v>0.0008254478833732787</v>
+        <v>0.000825447883275876</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1341848126715277</v>
+        <v>0.1341848126714922</v>
       </c>
       <c r="M3">
-        <v>0.3777198032428331</v>
+        <v>0.3777198032428117</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.052985199828413</v>
+        <v>2.052985199828584</v>
       </c>
       <c r="C4">
-        <v>0.337558767303392</v>
+        <v>0.3375587673027951</v>
       </c>
       <c r="D4">
-        <v>0.3328678707435557</v>
+        <v>0.3328678707429447</v>
       </c>
       <c r="E4">
-        <v>0.03494548426083388</v>
+        <v>0.03494548426085653</v>
       </c>
       <c r="F4">
         <v>5.497898965547677</v>
       </c>
       <c r="G4">
-        <v>0.0008326936803781103</v>
+        <v>0.0008326936805369181</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1258962823120413</v>
+        <v>0.1258962823121408</v>
       </c>
       <c r="M4">
-        <v>0.3450291067272389</v>
+        <v>0.3450291067272246</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -568,16 +568,16 @@
         <v>0.322682825540511</v>
       </c>
       <c r="D5">
-        <v>0.3242438055207515</v>
+        <v>0.3242438055202967</v>
       </c>
       <c r="E5">
-        <v>0.03459645773454545</v>
+        <v>0.03459645773450482</v>
       </c>
       <c r="F5">
-        <v>5.317679998899564</v>
+        <v>5.317679998899592</v>
       </c>
       <c r="G5">
-        <v>0.000835685925596103</v>
+        <v>0.0008356859256484217</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1225843566804343</v>
+        <v>0.1225843566806049</v>
       </c>
       <c r="M5">
-        <v>0.3319424958382911</v>
+        <v>0.3319424958382768</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.955657243357507</v>
+        <v>1.955657243357678</v>
       </c>
       <c r="C6">
-        <v>0.3202235608344211</v>
+        <v>0.3202235608344495</v>
       </c>
       <c r="D6">
         <v>0.3228180418518747</v>
       </c>
       <c r="E6">
-        <v>0.03453866520780258</v>
+        <v>0.0345386652077857</v>
       </c>
       <c r="F6">
-        <v>5.287896114066712</v>
+        <v>5.287896114066683</v>
       </c>
       <c r="G6">
-        <v>0.0008361852674588373</v>
+        <v>0.0008361852674628717</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1220381699909225</v>
+        <v>0.1220381699911002</v>
       </c>
       <c r="M6">
-        <v>0.3297827775681696</v>
+        <v>0.3297827775681625</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.051852938850971</v>
+        <v>2.051852938851084</v>
       </c>
       <c r="C7">
-        <v>0.3373573914035433</v>
+        <v>0.3373573914039412</v>
       </c>
       <c r="D7">
-        <v>0.3327511315261091</v>
+        <v>0.3327511315259812</v>
       </c>
       <c r="E7">
-        <v>0.03494076542606828</v>
+        <v>0.03494076542607383</v>
       </c>
       <c r="F7">
-        <v>5.495458746801802</v>
+        <v>5.495458746801745</v>
       </c>
       <c r="G7">
-        <v>0.0008327338704567322</v>
+        <v>0.000832733870525374</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1258513601739537</v>
+        <v>0.1258513601739608</v>
       </c>
       <c r="M7">
-        <v>0.3448517051421547</v>
+        <v>0.344851705142176</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.48970320008948</v>
+        <v>2.489703200089309</v>
       </c>
       <c r="C8">
-        <v>0.4148289377797596</v>
+        <v>0.4148289377791343</v>
       </c>
       <c r="D8">
-        <v>0.3776371766556252</v>
+        <v>0.3776371766556537</v>
       </c>
       <c r="E8">
-        <v>0.0367481450990903</v>
+        <v>0.03674814509908164</v>
       </c>
       <c r="F8">
-        <v>6.434748770674048</v>
+        <v>6.434748770674105</v>
       </c>
       <c r="G8">
-        <v>0.0008178413923380831</v>
+        <v>0.0008178413922765767</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1432758277197479</v>
+        <v>0.1432758277198332</v>
       </c>
       <c r="M8">
-        <v>0.4134992194759661</v>
+        <v>0.4134992194759803</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.412289218835781</v>
+        <v>3.41228921883561</v>
       </c>
       <c r="C9">
-        <v>0.5766509037066783</v>
+        <v>0.5766509037062235</v>
       </c>
       <c r="D9">
-        <v>0.4710507432646551</v>
+        <v>0.4710507432647972</v>
       </c>
       <c r="E9">
-        <v>0.04051762702150841</v>
+        <v>0.04051762702148931</v>
       </c>
       <c r="F9">
-        <v>8.392057538441492</v>
+        <v>8.392057538441549</v>
       </c>
       <c r="G9">
-        <v>0.000789596119719459</v>
+        <v>0.000789596119937238</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1801686320972635</v>
+        <v>0.1801686320972706</v>
       </c>
       <c r="M9">
-        <v>0.5582895922610476</v>
+        <v>0.5582895922610902</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.147551925839821</v>
+        <v>4.14755192583965</v>
       </c>
       <c r="C10">
-        <v>0.7053271606584133</v>
+        <v>0.7053271606582996</v>
       </c>
       <c r="D10">
-        <v>0.544809885028485</v>
+        <v>0.5448098850288261</v>
       </c>
       <c r="E10">
-        <v>0.04355178431064921</v>
+        <v>0.04355178431073181</v>
       </c>
       <c r="F10">
-        <v>9.936432790076026</v>
+        <v>9.936432790076111</v>
       </c>
       <c r="G10">
-        <v>0.0007691369831422342</v>
+        <v>0.0007691369828938393</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2095911257194274</v>
+        <v>0.2095911257195553</v>
       </c>
       <c r="M10">
-        <v>0.6736826801489926</v>
+        <v>0.6736826801490068</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.499646705309829</v>
+        <v>4.499646705310113</v>
       </c>
       <c r="C11">
-        <v>0.7670489340419806</v>
+        <v>0.7670489340419522</v>
       </c>
       <c r="D11">
-        <v>0.5799866022356355</v>
+        <v>0.5799866022350102</v>
       </c>
       <c r="E11">
-        <v>0.04502642044390148</v>
+        <v>0.04502642044390992</v>
       </c>
       <c r="F11">
-        <v>10.67203440234294</v>
+        <v>10.67203440234312</v>
       </c>
       <c r="G11">
-        <v>0.0007598128137840716</v>
+        <v>0.0007598128135114128</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2236595262755259</v>
+        <v>0.223659526275668</v>
       </c>
       <c r="M11">
-        <v>0.7289161094329302</v>
+        <v>0.7289161094329657</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.636041014088391</v>
+        <v>4.636041014088335</v>
       </c>
       <c r="C12">
-        <v>0.7909906211617397</v>
+        <v>0.7909906211627344</v>
       </c>
       <c r="D12">
-        <v>0.5935928649914217</v>
+        <v>0.5935928649916207</v>
       </c>
       <c r="E12">
-        <v>0.0456023458238195</v>
+        <v>0.04560234582387279</v>
       </c>
       <c r="F12">
-        <v>10.95636269491547</v>
+        <v>10.95636269491558</v>
       </c>
       <c r="G12">
-        <v>0.0007562712740354071</v>
+        <v>0.0007562712740328802</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2291036238759006</v>
+        <v>0.2291036238757442</v>
       </c>
       <c r="M12">
-        <v>0.7503062344919371</v>
+        <v>0.7503062344919513</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.606520221370261</v>
+        <v>4.606520221370431</v>
       </c>
       <c r="C13">
-        <v>0.7858070279280014</v>
+        <v>0.785807027927973</v>
       </c>
       <c r="D13">
-        <v>0.5906488699323234</v>
+        <v>0.5906488699325791</v>
       </c>
       <c r="E13">
-        <v>0.04547745864395791</v>
+        <v>0.04547745864384778</v>
       </c>
       <c r="F13">
         <v>10.89485245352199</v>
       </c>
       <c r="G13">
-        <v>0.0007570346310141814</v>
+        <v>0.0007570346307688932</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2279256203071327</v>
+        <v>0.2279256203072322</v>
       </c>
       <c r="M13">
-        <v>0.745676937795487</v>
+        <v>0.7456769377955013</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.510803134393598</v>
+        <v>4.510803134393427</v>
       </c>
       <c r="C14">
-        <v>0.7690065097584409</v>
+        <v>0.7690065097579009</v>
       </c>
       <c r="D14">
-        <v>0.5810999386370952</v>
+        <v>0.5810999386372089</v>
       </c>
       <c r="E14">
-        <v>0.04507342541633585</v>
+        <v>0.04507342541630832</v>
       </c>
       <c r="F14">
-        <v>10.69530404706023</v>
+        <v>10.6953040470604</v>
       </c>
       <c r="G14">
-        <v>0.0007595217158770431</v>
+        <v>0.0007595217159743008</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2241049592048086</v>
+        <v>0.2241049592048796</v>
       </c>
       <c r="M14">
-        <v>0.7306658630634857</v>
+        <v>0.7306658630634786</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.452590149311789</v>
+        <v>4.452590149311504</v>
       </c>
       <c r="C15">
-        <v>0.7587934895290687</v>
+        <v>0.7587934895300634</v>
       </c>
       <c r="D15">
-        <v>0.5752898568784701</v>
+        <v>0.5752898568784133</v>
       </c>
       <c r="E15">
-        <v>0.04482835619321301</v>
+        <v>0.04482835619326098</v>
       </c>
       <c r="F15">
         <v>10.57386012327953</v>
       </c>
       <c r="G15">
-        <v>0.0007610434658435041</v>
+        <v>0.0007610434657176048</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2217804947101882</v>
+        <v>0.2217804947101598</v>
       </c>
       <c r="M15">
         <v>0.7215355826179604</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.124939258026814</v>
+        <v>4.124939258026984</v>
       </c>
       <c r="C16">
-        <v>0.7013665784804175</v>
+        <v>0.7013665784809007</v>
       </c>
       <c r="D16">
         <v>0.5425479072664814</v>
       </c>
       <c r="E16">
-        <v>0.0434576299405256</v>
+        <v>0.04345762994058866</v>
       </c>
       <c r="F16">
-        <v>9.889107437057703</v>
+        <v>9.889107437057788</v>
       </c>
       <c r="G16">
-        <v>0.0007697453266109881</v>
+        <v>0.0007697453264909122</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2086869785613601</v>
+        <v>0.2086869785614738</v>
       </c>
       <c r="M16">
-        <v>0.6701347144387526</v>
+        <v>0.6701347144387242</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.928794951515329</v>
+        <v>3.928794951515158</v>
       </c>
       <c r="C17">
-        <v>0.667025122941368</v>
+        <v>0.6670251229408848</v>
       </c>
       <c r="D17">
-        <v>0.5229116854729625</v>
+        <v>0.522911685472792</v>
       </c>
       <c r="E17">
-        <v>0.04264344904888162</v>
+        <v>0.04264344904885808</v>
       </c>
       <c r="F17">
-        <v>9.478167156994061</v>
+        <v>9.478167156994147</v>
       </c>
       <c r="G17">
-        <v>0.0007750738602445183</v>
+        <v>0.0007750738603562975</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2008417452646967</v>
+        <v>0.2008417452647393</v>
       </c>
       <c r="M17">
-        <v>0.6393563711545696</v>
+        <v>0.639356371154598</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.817599353693026</v>
+        <v>3.817599353692628</v>
       </c>
       <c r="C18">
-        <v>0.6475649316749923</v>
+        <v>0.647564931674026</v>
       </c>
       <c r="D18">
-        <v>0.5117666064101343</v>
+        <v>0.5117666064097079</v>
       </c>
       <c r="E18">
-        <v>0.04218375696485532</v>
+        <v>0.04218375696491172</v>
       </c>
       <c r="F18">
         <v>9.244845751334339</v>
       </c>
       <c r="G18">
-        <v>0.0007781376440532919</v>
+        <v>0.0007781376441699126</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1963924779513349</v>
+        <v>0.1963924779514628</v>
       </c>
       <c r="M18">
-        <v>0.6219058234122414</v>
+        <v>0.6219058234122627</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.780214386744774</v>
+        <v>3.780214386745058</v>
       </c>
       <c r="C19">
-        <v>0.6410231944256566</v>
+        <v>0.6410231944261398</v>
       </c>
       <c r="D19">
-        <v>0.5080172577779081</v>
+        <v>0.5080172577771975</v>
       </c>
       <c r="E19">
-        <v>0.04202948433102272</v>
+        <v>0.04202948433095655</v>
       </c>
       <c r="F19">
-        <v>9.166341349933305</v>
+        <v>9.166341349933333</v>
       </c>
       <c r="G19">
-        <v>0.0007791750343455694</v>
+        <v>0.0007791750343403382</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1948963645371435</v>
+        <v>0.1948963645373141</v>
       </c>
       <c r="M19">
-        <v>0.6160385021293422</v>
+        <v>0.6160385021293138</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>3.949503521302631</v>
       </c>
       <c r="C20">
-        <v>0.6706498661109777</v>
+        <v>0.6706498661114608</v>
       </c>
       <c r="D20">
-        <v>0.5249862108015009</v>
+        <v>0.5249862108016998</v>
       </c>
       <c r="E20">
-        <v>0.04272920377989697</v>
+        <v>0.04272920378000045</v>
       </c>
       <c r="F20">
-        <v>9.521590990228106</v>
+        <v>9.521590990228219</v>
       </c>
       <c r="G20">
-        <v>0.0007745067914447656</v>
+        <v>0.0007745067915580254</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2016702304501621</v>
+        <v>0.2016702304502189</v>
       </c>
       <c r="M20">
-        <v>0.6426061283826598</v>
+        <v>0.6426061283827096</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.538829667060327</v>
+        <v>4.538829667060611</v>
       </c>
       <c r="C21">
-        <v>0.7739247878793662</v>
+        <v>0.7739247878798494</v>
       </c>
       <c r="D21">
-        <v>0.5838964736697392</v>
+        <v>0.5838964736702508</v>
       </c>
       <c r="E21">
-        <v>0.0451915886079397</v>
+        <v>0.04519158860796368</v>
       </c>
       <c r="F21">
-        <v>10.7537505052191</v>
+        <v>10.75375050521899</v>
       </c>
       <c r="G21">
-        <v>0.0007587915618866042</v>
+        <v>0.0007587915618049937</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2252238493765475</v>
+        <v>0.2252238493765759</v>
       </c>
       <c r="M21">
-        <v>0.735061384811253</v>
+        <v>0.7350613848112673</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.942173412569446</v>
+        <v>4.942173412569559</v>
       </c>
       <c r="C22">
-        <v>0.8448069366483821</v>
+        <v>0.8448069366483537</v>
       </c>
       <c r="D22">
-        <v>0.6240945205271373</v>
+        <v>0.6240945205273363</v>
       </c>
       <c r="E22">
-        <v>0.04690550465950105</v>
+        <v>0.04690550465955257</v>
       </c>
       <c r="F22">
-        <v>11.59330628966995</v>
+        <v>11.59330628967001</v>
       </c>
       <c r="G22">
-        <v>0.0007484534638481393</v>
+        <v>0.000748453463950885</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.241308896092761</v>
+        <v>0.2413088960927894</v>
       </c>
       <c r="M22">
-        <v>0.7983010691340695</v>
+        <v>0.7983010691339985</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.72503323458966</v>
+        <v>4.725033234589489</v>
       </c>
       <c r="C23">
-        <v>0.8066229602227111</v>
+        <v>0.8066229602230806</v>
       </c>
       <c r="D23">
-        <v>0.6024647844519677</v>
+        <v>0.6024647844520814</v>
       </c>
       <c r="E23">
-        <v>0.04597963454810028</v>
+        <v>0.04597963454815179</v>
       </c>
       <c r="F23">
-        <v>11.14169343427329</v>
+        <v>11.14169343427352</v>
       </c>
       <c r="G23">
-        <v>0.0007539804067698643</v>
+        <v>0.0007539804064908904</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2326537326796085</v>
+        <v>0.2326537326798359</v>
       </c>
       <c r="M23">
-        <v>0.7642604152482875</v>
+        <v>0.7642604152483443</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>3.94013632405489</v>
       </c>
       <c r="C24">
-        <v>0.6690102457377805</v>
+        <v>0.6690102457378657</v>
       </c>
       <c r="D24">
-        <v>0.5240478730114546</v>
+        <v>0.524047873011483</v>
       </c>
       <c r="E24">
-        <v>0.04269040821184955</v>
+        <v>0.04269040821187975</v>
       </c>
       <c r="F24">
-        <v>9.501950011743588</v>
+        <v>9.501950011743446</v>
       </c>
       <c r="G24">
-        <v>0.00077476316166319</v>
+        <v>0.0007747631616767382</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2012954834387415</v>
+        <v>0.2012954834386989</v>
       </c>
       <c r="M24">
-        <v>0.6411361579438903</v>
+        <v>0.6411361579438406</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.154131194669958</v>
+        <v>3.154131194670242</v>
       </c>
       <c r="C25">
-        <v>0.5314649811433014</v>
+        <v>0.5314649811429319</v>
       </c>
       <c r="D25">
-        <v>0.4450297299429309</v>
+        <v>0.4450297299427461</v>
       </c>
       <c r="E25">
-        <v>0.03946203459898534</v>
+        <v>0.03946203459909836</v>
       </c>
       <c r="F25">
-        <v>7.846820261867066</v>
+        <v>7.846820261866981</v>
       </c>
       <c r="G25">
-        <v>0.0007971620169575101</v>
+        <v>0.00079716201708504</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1698347158814499</v>
+        <v>0.1698347158814926</v>
       </c>
       <c r="M25">
-        <v>0.5177671648751101</v>
+        <v>0.517767164875103</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_17/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_17/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.612080899840009</v>
+        <v>2.650866295543096</v>
       </c>
       <c r="C2">
-        <v>0.4363717429098131</v>
+        <v>0.6122336829874087</v>
       </c>
       <c r="D2">
-        <v>0.3901050995736455</v>
+        <v>0.03595104021758999</v>
       </c>
       <c r="E2">
-        <v>0.03724914421922398</v>
+        <v>0.05938738258357201</v>
       </c>
       <c r="F2">
-        <v>6.69590482951125</v>
+        <v>0.8598265710274404</v>
       </c>
       <c r="G2">
-        <v>0.0008138805198904798</v>
+        <v>0.7839311323684512</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0005843730886367915</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.5219206941513903</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.4696016976591935</v>
       </c>
       <c r="L2">
-        <v>0.1481602075847448</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4326980422203164</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1914841700635534</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.445335870669723</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.261558315376703</v>
+        <v>2.305164689742583</v>
       </c>
       <c r="C3">
-        <v>0.3745524852392919</v>
+        <v>0.5419660946648435</v>
       </c>
       <c r="D3">
-        <v>0.3543091024112215</v>
+        <v>0.03448920353425677</v>
       </c>
       <c r="E3">
-        <v>0.03581014754310274</v>
+        <v>0.05590847645169794</v>
       </c>
       <c r="F3">
-        <v>5.946359285686668</v>
+        <v>0.7935013810615033</v>
       </c>
       <c r="G3">
-        <v>0.000825447883275876</v>
+        <v>0.7241564622537737</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.001750339322932781</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.5006843190824384</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.4616065733438361</v>
       </c>
       <c r="L3">
-        <v>0.1341848126714922</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3777198032428117</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1703940858605222</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.3880007791497917</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.052985199828584</v>
+        <v>2.093222605667336</v>
       </c>
       <c r="C4">
-        <v>0.3375587673027951</v>
+        <v>0.4988403328263189</v>
       </c>
       <c r="D4">
-        <v>0.3328678707429447</v>
+        <v>0.03357901674528208</v>
       </c>
       <c r="E4">
-        <v>0.03494548426085653</v>
+        <v>0.05376900876185742</v>
       </c>
       <c r="F4">
-        <v>5.497898965547677</v>
+        <v>0.7543001692127049</v>
       </c>
       <c r="G4">
-        <v>0.0008326936805369181</v>
+        <v>0.6889776700224814</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.00280991130393704</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.4885284849448084</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.4576232675978957</v>
       </c>
       <c r="L4">
-        <v>0.1258962823121408</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3450291067272246</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1574745512855458</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.3528548282227817</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.969446629174456</v>
+        <v>2.006904398228812</v>
       </c>
       <c r="C5">
-        <v>0.322682825540511</v>
+        <v>0.481262371875431</v>
       </c>
       <c r="D5">
-        <v>0.3242438055202967</v>
+        <v>0.03320496566170306</v>
       </c>
       <c r="E5">
-        <v>0.03459645773450482</v>
+        <v>0.05289477574082557</v>
       </c>
       <c r="F5">
-        <v>5.317679998899592</v>
+        <v>0.738681740446637</v>
       </c>
       <c r="G5">
-        <v>0.0008356859256484217</v>
+        <v>0.6749978400896595</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.003322972687748171</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.4837845385194157</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.456220611410096</v>
       </c>
       <c r="L5">
-        <v>0.1225843566806049</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3319424958382768</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1522139291003271</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.3385421156724817</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.955657243357678</v>
+        <v>1.992573486297772</v>
       </c>
       <c r="C6">
-        <v>0.3202235608344495</v>
+        <v>0.4783430914358178</v>
       </c>
       <c r="D6">
-        <v>0.3228180418518747</v>
+        <v>0.03314266594163584</v>
       </c>
       <c r="E6">
-        <v>0.0345386652077857</v>
+        <v>0.05274942322187792</v>
       </c>
       <c r="F6">
-        <v>5.287896114066683</v>
+        <v>0.7361090876076233</v>
       </c>
       <c r="G6">
-        <v>0.0008361852674628717</v>
+        <v>0.6726972222066223</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.003412929423713629</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.4830091198522553</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.4560006779272143</v>
       </c>
       <c r="L6">
-        <v>0.1220381699911002</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3297827775681625</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1513405664369927</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.3361659360978848</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.051852938851084</v>
+        <v>2.092058324948198</v>
       </c>
       <c r="C7">
-        <v>0.3373573914039412</v>
+        <v>0.4986032968756433</v>
       </c>
       <c r="D7">
-        <v>0.3327511315259812</v>
+        <v>0.03357398484254048</v>
       </c>
       <c r="E7">
-        <v>0.03494076542607383</v>
+        <v>0.05375723014772849</v>
       </c>
       <c r="F7">
-        <v>5.495458746801745</v>
+        <v>0.7540881246858646</v>
       </c>
       <c r="G7">
-        <v>0.000832733870525374</v>
+        <v>0.6887877273701548</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.002816508155365383</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.4884636735608154</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.4576034734884544</v>
       </c>
       <c r="L7">
-        <v>0.1258513601739608</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.344851705142176</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1574035919738108</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.3526617697489129</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.489703200089309</v>
+        <v>2.531582786757212</v>
       </c>
       <c r="C8">
-        <v>0.4148289377791343</v>
+        <v>0.587996134315091</v>
       </c>
       <c r="D8">
-        <v>0.3776371766556537</v>
+        <v>0.03544963178318383</v>
       </c>
       <c r="E8">
-        <v>0.03674814509908164</v>
+        <v>0.05818761418530105</v>
       </c>
       <c r="F8">
-        <v>6.434748770674105</v>
+        <v>0.8366251928925692</v>
       </c>
       <c r="G8">
-        <v>0.0008178413922765767</v>
+        <v>0.7629878864992321</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0009119004409674503</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.5144073227154706</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.4666453009506242</v>
       </c>
       <c r="L8">
-        <v>0.1432758277198332</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4134992194759803</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1842040546017074</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.4255515340766607</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.41228921883561</v>
+        <v>3.397557309204331</v>
       </c>
       <c r="C9">
-        <v>0.5766509037062235</v>
+        <v>0.7638711854111477</v>
       </c>
       <c r="D9">
-        <v>0.4710507432647972</v>
+        <v>0.03902692566095922</v>
       </c>
       <c r="E9">
-        <v>0.04051762702148931</v>
+        <v>0.06692253330660769</v>
       </c>
       <c r="F9">
-        <v>8.392057538441549</v>
+        <v>1.011837371326138</v>
       </c>
       <c r="G9">
-        <v>0.000789596119937238</v>
+        <v>0.921885456627237</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0001480828073066043</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.5728915000643013</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.4923048017709633</v>
       </c>
       <c r="L9">
-        <v>0.1801686320972706</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5582895922610902</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2371574420256195</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.5691994939939065</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.14755192583965</v>
+        <v>4.043691376473248</v>
       </c>
       <c r="C10">
-        <v>0.7053271606582996</v>
+        <v>0.9031510312931061</v>
       </c>
       <c r="D10">
-        <v>0.5448098850288261</v>
+        <v>0.04256059587785188</v>
       </c>
       <c r="E10">
-        <v>0.04355178431073181</v>
+        <v>0.07367107996182032</v>
       </c>
       <c r="F10">
-        <v>9.936432790076111</v>
+        <v>1.130082533448544</v>
       </c>
       <c r="G10">
-        <v>0.0007691369828938393</v>
+        <v>1.025885195311375</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.001836036002405894</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.6098464620222472</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.5029502141526123</v>
       </c>
       <c r="L10">
-        <v>0.2095911257195553</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6736826801490068</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2643950492427223</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.6681306536286229</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.499646705310113</v>
+        <v>4.385009413675959</v>
       </c>
       <c r="C11">
-        <v>0.7670489340419522</v>
+        <v>1.050601879684422</v>
       </c>
       <c r="D11">
-        <v>0.5799866022350102</v>
+        <v>0.05407781649692112</v>
       </c>
       <c r="E11">
-        <v>0.04502642044390992</v>
+        <v>0.08534498625618525</v>
       </c>
       <c r="F11">
-        <v>10.67203440234312</v>
+        <v>1.012694540680613</v>
       </c>
       <c r="G11">
-        <v>0.0007598128135114128</v>
+        <v>0.884445471032933</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02066194350352646</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.5311488774915887</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.3966482559384517</v>
       </c>
       <c r="L11">
-        <v>0.223659526275668</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.7289161094329657</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1835438805044234</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.64912139520073</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.636041014088335</v>
+        <v>4.538650621281192</v>
       </c>
       <c r="C12">
-        <v>0.7909906211627344</v>
+        <v>1.15236693359634</v>
       </c>
       <c r="D12">
-        <v>0.5935928649916207</v>
+        <v>0.06510071879360879</v>
       </c>
       <c r="E12">
-        <v>0.04560234582387279</v>
+        <v>0.1031078794478759</v>
       </c>
       <c r="F12">
-        <v>10.95636269491558</v>
+        <v>0.8934688765154988</v>
       </c>
       <c r="G12">
-        <v>0.0007562712740328802</v>
+        <v>0.7514128016871808</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05924824977515897</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.4607005317938473</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.3148672946688436</v>
       </c>
       <c r="L12">
-        <v>0.2291036238757442</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.7503062344919513</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1259894606950809</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.612372203326693</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.606520221370431</v>
+        <v>4.554883184074242</v>
       </c>
       <c r="C13">
-        <v>0.785807027927973</v>
+        <v>1.223520011608286</v>
       </c>
       <c r="D13">
-        <v>0.5906488699325791</v>
+        <v>0.07618529903516702</v>
       </c>
       <c r="E13">
-        <v>0.04547745864384778</v>
+        <v>0.1261544483976529</v>
       </c>
       <c r="F13">
-        <v>10.89485245352199</v>
+        <v>0.7656848643554781</v>
       </c>
       <c r="G13">
-        <v>0.0007570346307688932</v>
+        <v>0.6168914225182078</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1146151490532645</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.3922997023805124</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.2467567093727538</v>
       </c>
       <c r="L13">
-        <v>0.2279256203072322</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.7456769377955013</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.0832458642214462</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.5601742801275762</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.510803134393427</v>
+        <v>4.503997979583232</v>
       </c>
       <c r="C14">
-        <v>0.7690065097579009</v>
+        <v>1.259623205520995</v>
       </c>
       <c r="D14">
-        <v>0.5810999386372089</v>
+        <v>0.08410828442334406</v>
       </c>
       <c r="E14">
-        <v>0.04507342541630832</v>
+        <v>0.1456366010069701</v>
       </c>
       <c r="F14">
-        <v>10.6953040470604</v>
+        <v>0.6738741074224208</v>
       </c>
       <c r="G14">
-        <v>0.0007595217159743008</v>
+        <v>0.5240261437378848</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.163604216178328</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.346253233170728</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.2068770972202714</v>
       </c>
       <c r="L14">
-        <v>0.2241049592048796</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.7306658630634786</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.06246983285117302</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.5170995159171667</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.452590149311504</v>
+        <v>4.46188352165575</v>
       </c>
       <c r="C15">
-        <v>0.7587934895300634</v>
+        <v>1.260784545436593</v>
       </c>
       <c r="D15">
-        <v>0.5752898568784133</v>
+        <v>0.08574472646169795</v>
       </c>
       <c r="E15">
-        <v>0.04482835619326098</v>
+        <v>0.1502041282094382</v>
       </c>
       <c r="F15">
-        <v>10.57386012327953</v>
+        <v>0.6492021758406281</v>
       </c>
       <c r="G15">
-        <v>0.0007610434657176048</v>
+        <v>0.5001462766052498</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.175951258047732</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.33504007269228</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.1987599812367264</v>
       </c>
       <c r="L15">
-        <v>0.2217804947101598</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.7215355826179604</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.05847898014449981</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.503399339996939</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.124939258026984</v>
+        <v>4.177078888382482</v>
       </c>
       <c r="C16">
-        <v>0.7013665784809007</v>
+        <v>1.182812032488357</v>
       </c>
       <c r="D16">
-        <v>0.5425479072664814</v>
+        <v>0.08143885268586359</v>
       </c>
       <c r="E16">
-        <v>0.04345762994058866</v>
+        <v>0.141621033997442</v>
       </c>
       <c r="F16">
-        <v>9.889107437057788</v>
+        <v>0.6249951835913663</v>
       </c>
       <c r="G16">
-        <v>0.0007697453264909122</v>
+        <v>0.4835284229505419</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1624570719481682</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.3331308148543002</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.2075965015689327</v>
       </c>
       <c r="L16">
-        <v>0.2086869785614738</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6701347144387242</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.0569755545802515</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.472988614838215</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.928794951515158</v>
+        <v>3.986586851791401</v>
       </c>
       <c r="C17">
-        <v>0.6670251229408848</v>
+        <v>1.104088456897955</v>
       </c>
       <c r="D17">
-        <v>0.522911685472792</v>
+        <v>0.07387289495143534</v>
       </c>
       <c r="E17">
-        <v>0.04264344904885808</v>
+        <v>0.1240967245592195</v>
       </c>
       <c r="F17">
-        <v>9.478167156994147</v>
+        <v>0.6547754652485622</v>
       </c>
       <c r="G17">
-        <v>0.0007750738603562975</v>
+        <v>0.5193831148074395</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1243478544995611</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3558595318938984</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.2348750085904818</v>
       </c>
       <c r="L17">
-        <v>0.2008417452647393</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.639356371154598</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.06512459423126771</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.4722532912085597</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.817599353692628</v>
+        <v>3.855582529221749</v>
       </c>
       <c r="C18">
-        <v>0.647564931674026</v>
+        <v>1.018340260339613</v>
       </c>
       <c r="D18">
-        <v>0.5117666064097079</v>
+        <v>0.06354724408359402</v>
       </c>
       <c r="E18">
-        <v>0.04218375696491172</v>
+        <v>0.1012169487677497</v>
       </c>
       <c r="F18">
-        <v>9.244845751334339</v>
+        <v>0.737064869553123</v>
       </c>
       <c r="G18">
-        <v>0.0007781376441699126</v>
+        <v>0.6088536039709851</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07145461873388115</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.4043962376559733</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.2862295149535043</v>
       </c>
       <c r="L18">
-        <v>0.1963924779514628</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.6219058234122627</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.09067403196862855</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.4972768700755097</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.780214386745058</v>
+        <v>3.782608808234784</v>
       </c>
       <c r="C19">
-        <v>0.6410231944261398</v>
+        <v>0.9366731530437846</v>
       </c>
       <c r="D19">
-        <v>0.5080172577771975</v>
+        <v>0.05300417560043513</v>
       </c>
       <c r="E19">
-        <v>0.04202948433095655</v>
+        <v>0.08197587174348442</v>
       </c>
       <c r="F19">
-        <v>9.166341349933333</v>
+        <v>0.8609404606738593</v>
       </c>
       <c r="G19">
-        <v>0.0007791750343403382</v>
+        <v>0.7428418258129028</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02637310370784007</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.4738303672877322</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.361355791255523</v>
       </c>
       <c r="L19">
-        <v>0.1948963645373141</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.6160385021293138</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1408092844758571</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.5421142934557182</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.949503521302631</v>
+        <v>3.873813226472237</v>
       </c>
       <c r="C20">
-        <v>0.6706498661114608</v>
+        <v>0.8668267679244366</v>
       </c>
       <c r="D20">
-        <v>0.5249862108016998</v>
+        <v>0.0416705101581698</v>
       </c>
       <c r="E20">
-        <v>0.04272920378000045</v>
+        <v>0.07187751141014376</v>
       </c>
       <c r="F20">
-        <v>9.521590990228219</v>
+        <v>1.097424223723721</v>
       </c>
       <c r="G20">
-        <v>0.0007745067915580254</v>
+        <v>0.9968611680437505</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.001217015639194852</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.5992468573616065</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.4991384322772561</v>
       </c>
       <c r="L20">
-        <v>0.2016702304502189</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.6426061283827096</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2567003846917544</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.6417915352456163</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.538829667060611</v>
+        <v>4.364001136375805</v>
       </c>
       <c r="C21">
-        <v>0.7739247878798494</v>
+        <v>0.9602443000952405</v>
       </c>
       <c r="D21">
-        <v>0.5838964736702508</v>
+        <v>0.04287347301743694</v>
       </c>
       <c r="E21">
-        <v>0.04519158860796368</v>
+        <v>0.07685564259491429</v>
       </c>
       <c r="F21">
-        <v>10.75375050521899</v>
+        <v>1.223660335612038</v>
       </c>
       <c r="G21">
-        <v>0.0007587915618049937</v>
+        <v>1.115802353007069</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.003209206907982098</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.6474875128731412</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.5308961183667975</v>
       </c>
       <c r="L21">
-        <v>0.2252238493765759</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.7350613848112673</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.2966103171352188</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.7295395254849879</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.942173412569559</v>
+        <v>4.688643286963327</v>
       </c>
       <c r="C22">
-        <v>0.8448069366483537</v>
+        <v>1.026302471078395</v>
       </c>
       <c r="D22">
-        <v>0.6240945205273363</v>
+        <v>0.0441367552169325</v>
       </c>
       <c r="E22">
-        <v>0.04690550465955257</v>
+        <v>0.08026151612688137</v>
       </c>
       <c r="F22">
-        <v>11.59330628967001</v>
+        <v>1.298197216120769</v>
       </c>
       <c r="G22">
-        <v>0.000748453463950885</v>
+        <v>1.184414521096471</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.00505861805448593</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.6744501396374574</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.5458959848213638</v>
       </c>
       <c r="L22">
-        <v>0.2413088960927894</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.7983010691339985</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3166815711678908</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.7834006081015943</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.725033234589489</v>
+        <v>4.515203198323889</v>
       </c>
       <c r="C23">
-        <v>0.8066229602230806</v>
+        <v>0.9910032475582682</v>
       </c>
       <c r="D23">
-        <v>0.6024647844520814</v>
+        <v>0.04346351449376584</v>
       </c>
       <c r="E23">
-        <v>0.04597963454815179</v>
+        <v>0.07843697006458017</v>
       </c>
       <c r="F23">
-        <v>11.14169343427352</v>
+        <v>1.258174952022003</v>
       </c>
       <c r="G23">
-        <v>0.0007539804064908904</v>
+        <v>1.147551417058821</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.004021581960519161</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.6599330557555163</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.5377621735260973</v>
       </c>
       <c r="L23">
-        <v>0.2326537326798359</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.7642604152483443</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3059518729217672</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.7546254446448231</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.94013632405489</v>
+        <v>3.861807452701726</v>
       </c>
       <c r="C24">
-        <v>0.6690102457378657</v>
+        <v>0.8581633209944073</v>
       </c>
       <c r="D24">
-        <v>0.524047873011483</v>
+        <v>0.0408916984331249</v>
       </c>
       <c r="E24">
-        <v>0.04269040821187975</v>
+        <v>0.07166004954900007</v>
       </c>
       <c r="F24">
-        <v>9.501950011743446</v>
+        <v>1.111631105066024</v>
       </c>
       <c r="G24">
-        <v>0.0007747631616767382</v>
+        <v>1.013030835723114</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.001144394488727274</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.6076155260277432</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.5096570753477252</v>
       </c>
       <c r="L24">
-        <v>0.2012954834386989</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.6411361579438406</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.265663678156784</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.6462205320020118</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.154131194670242</v>
+        <v>3.162620835155337</v>
       </c>
       <c r="C25">
-        <v>0.5314649811429319</v>
+        <v>0.7161663712481925</v>
       </c>
       <c r="D25">
-        <v>0.4450297299427461</v>
+        <v>0.03807002342540855</v>
       </c>
       <c r="E25">
-        <v>0.03946203459909836</v>
+        <v>0.06454353467811424</v>
       </c>
       <c r="F25">
-        <v>7.846820261866981</v>
+        <v>0.9628197004034007</v>
       </c>
       <c r="G25">
-        <v>0.00079716201708504</v>
+        <v>0.8772732239473413</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>9.197027486251841E-07</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.5561670528798004</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.4844288156857317</v>
       </c>
       <c r="L25">
-        <v>0.1698347158814926</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.517767164875103</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2227656555458495</v>
       </c>
       <c r="O25">
+        <v>0.5302247777084617</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_17/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_17/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.650866295543096</v>
+        <v>2.654075370182625</v>
       </c>
       <c r="C2">
-        <v>0.6122336829874087</v>
+        <v>0.6666707724291996</v>
       </c>
       <c r="D2">
-        <v>0.03595104021758999</v>
+        <v>0.04047530335121508</v>
       </c>
       <c r="E2">
-        <v>0.05938738258357201</v>
+        <v>0.05783802607120592</v>
       </c>
       <c r="F2">
-        <v>0.8598265710274404</v>
+        <v>0.7497759825768497</v>
       </c>
       <c r="G2">
-        <v>0.7839311323684512</v>
+        <v>0.6406807308087821</v>
       </c>
       <c r="H2">
-        <v>0.0005843730886367915</v>
+        <v>0.0004262608801297585</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.5219206941513903</v>
+        <v>0.4998267494386823</v>
       </c>
       <c r="K2">
-        <v>0.4696016976591935</v>
+        <v>0.383910004727003</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1941482728120754</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1033774904857516</v>
       </c>
       <c r="N2">
-        <v>0.1914841700635534</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.445335870669723</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.1998918937852423</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.4488204133193392</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.305164689742583</v>
+        <v>2.310568903765841</v>
       </c>
       <c r="C3">
-        <v>0.5419660946648435</v>
+        <v>0.5833025345678493</v>
       </c>
       <c r="D3">
-        <v>0.03448920353425677</v>
+        <v>0.03758521866035025</v>
       </c>
       <c r="E3">
-        <v>0.05590847645169794</v>
+        <v>0.05479471157646332</v>
       </c>
       <c r="F3">
-        <v>0.7935013810615033</v>
+        <v>0.6990503897902087</v>
       </c>
       <c r="G3">
-        <v>0.7241564622537737</v>
+        <v>0.5988898056959613</v>
       </c>
       <c r="H3">
-        <v>0.001750339322932781</v>
+        <v>0.001319793029763594</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.5006843190824384</v>
+        <v>0.4828078208908124</v>
       </c>
       <c r="K3">
-        <v>0.4616065733438361</v>
+        <v>0.3845781477499521</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1989288029667051</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.09968871665227752</v>
       </c>
       <c r="N3">
-        <v>0.1703940858605222</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.3880007791497917</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.1789468826171543</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.3910308947380798</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.093222605667336</v>
+        <v>2.099648789886544</v>
       </c>
       <c r="C4">
-        <v>0.4988403328263189</v>
+        <v>0.5322971679984221</v>
       </c>
       <c r="D4">
-        <v>0.03357901674528208</v>
+        <v>0.03581172863376381</v>
       </c>
       <c r="E4">
-        <v>0.05376900876185742</v>
+        <v>0.05291974962625012</v>
       </c>
       <c r="F4">
-        <v>0.7543001692127049</v>
+        <v>0.6689857564360437</v>
       </c>
       <c r="G4">
-        <v>0.6889776700224814</v>
+        <v>0.5745233128451588</v>
       </c>
       <c r="H4">
-        <v>0.00280991130393704</v>
+        <v>0.002139693130708054</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.4885284849448084</v>
+        <v>0.4727225096281984</v>
       </c>
       <c r="K4">
-        <v>0.4576232675978957</v>
+        <v>0.3856287231223092</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2019938697389208</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.09831476217355117</v>
       </c>
       <c r="N4">
-        <v>0.1574745512855458</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.3528548282227817</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1661078423823099</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.3555733929154385</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.006904398228812</v>
+        <v>2.013673628728327</v>
       </c>
       <c r="C5">
-        <v>0.481262371875431</v>
+        <v>0.5115495554766483</v>
       </c>
       <c r="D5">
-        <v>0.03320496566170306</v>
+        <v>0.03508924442613903</v>
       </c>
       <c r="E5">
-        <v>0.05289477574082557</v>
+        <v>0.0521529612794267</v>
       </c>
       <c r="F5">
-        <v>0.738681740446637</v>
+        <v>0.6569859915371978</v>
       </c>
       <c r="G5">
-        <v>0.6749978400896595</v>
+        <v>0.5648947749850635</v>
       </c>
       <c r="H5">
-        <v>0.003322972687748171</v>
+        <v>0.002538064605592139</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.4837845385194157</v>
+        <v>0.4686985100961465</v>
       </c>
       <c r="K5">
-        <v>0.456220611410096</v>
+        <v>0.3862094941198109</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2032751052989958</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.09797222413794771</v>
       </c>
       <c r="N5">
-        <v>0.1522139291003271</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.3385421156724817</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1608787539092518</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.3411266275829945</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.992573486297772</v>
+        <v>1.999395484701438</v>
       </c>
       <c r="C6">
-        <v>0.4783430914358178</v>
+        <v>0.5081064555286048</v>
       </c>
       <c r="D6">
-        <v>0.03314266594163584</v>
+        <v>0.03496928947993894</v>
       </c>
       <c r="E6">
-        <v>0.05274942322187792</v>
+        <v>0.05202544026330269</v>
       </c>
       <c r="F6">
-        <v>0.7361090876076233</v>
+        <v>0.6550080809562786</v>
       </c>
       <c r="G6">
-        <v>0.6726972222066223</v>
+        <v>0.5633134574168253</v>
       </c>
       <c r="H6">
-        <v>0.003412929423713629</v>
+        <v>0.002607982251141228</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4830091198522553</v>
+        <v>0.4680353490072093</v>
       </c>
       <c r="K6">
-        <v>0.4560006779272143</v>
+        <v>0.3863149129804775</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.203489785640258</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.09792828485411498</v>
       </c>
       <c r="N6">
-        <v>0.1513405664369927</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.3361659360978848</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1600105757746988</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.3387277907412596</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.092058324948198</v>
+        <v>2.098461812512653</v>
       </c>
       <c r="C7">
-        <v>0.4986032968756433</v>
+        <v>0.5312442517479212</v>
       </c>
       <c r="D7">
-        <v>0.03357398484254048</v>
+        <v>0.035925695525723</v>
       </c>
       <c r="E7">
-        <v>0.05375723014772849</v>
+        <v>0.05288350774562378</v>
       </c>
       <c r="F7">
-        <v>0.7540881246858646</v>
+        <v>0.6666946011412307</v>
       </c>
       <c r="G7">
-        <v>0.6887877273701548</v>
+        <v>0.5772592884232921</v>
       </c>
       <c r="H7">
-        <v>0.002816508155365383</v>
+        <v>0.002149313663205366</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.4884636735608154</v>
+        <v>0.4659813864079183</v>
       </c>
       <c r="K7">
-        <v>0.4576034734884544</v>
+        <v>0.3845738125912099</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2015238315900021</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.09799621381942814</v>
       </c>
       <c r="N7">
-        <v>0.1574035919738108</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.3526617697489129</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.165965515567386</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.3553459051718306</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.531582786757212</v>
+        <v>2.535514284224519</v>
       </c>
       <c r="C8">
-        <v>0.587996134315091</v>
+        <v>0.6352735367589162</v>
       </c>
       <c r="D8">
-        <v>0.03544963178318383</v>
+        <v>0.03990706033371083</v>
       </c>
       <c r="E8">
-        <v>0.05818761418530105</v>
+        <v>0.05670478559530956</v>
       </c>
       <c r="F8">
-        <v>0.8366251928925692</v>
+        <v>0.7250100360478555</v>
       </c>
       <c r="G8">
-        <v>0.7629878864992321</v>
+        <v>0.6355821367900489</v>
       </c>
       <c r="H8">
-        <v>0.0009119004409674503</v>
+        <v>0.0006834597299278933</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.5144073227154706</v>
+        <v>0.47199035370285</v>
       </c>
       <c r="K8">
-        <v>0.4666453009506242</v>
+        <v>0.3805474833792069</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1942933037891628</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1007878830950339</v>
       </c>
       <c r="N8">
-        <v>0.1842040546017074</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.4255515340766607</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.1924261608346001</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.4287741705649282</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.397557309204331</v>
+        <v>3.393730819551593</v>
       </c>
       <c r="C9">
-        <v>0.7638711854111477</v>
+        <v>0.8439472859619457</v>
       </c>
       <c r="D9">
-        <v>0.03902692566095922</v>
+        <v>0.04727387648347303</v>
       </c>
       <c r="E9">
-        <v>0.06692253330660769</v>
+        <v>0.06429515723214596</v>
       </c>
       <c r="F9">
-        <v>1.011837371326138</v>
+        <v>0.8566178871561618</v>
       </c>
       <c r="G9">
-        <v>0.921885456627237</v>
+        <v>0.7508981347782111</v>
       </c>
       <c r="H9">
-        <v>0.0001480828073066043</v>
+        <v>0.0001297157723476605</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5728915000643013</v>
+        <v>0.5107770367381477</v>
       </c>
       <c r="K9">
-        <v>0.4923048017709633</v>
+        <v>0.3819817068599605</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1829448324428249</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1147740339990548</v>
       </c>
       <c r="N9">
-        <v>0.2371574420256195</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.5691994939939065</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.2448613314933681</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.5732841349601188</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.043691376473248</v>
+        <v>4.031678962445369</v>
       </c>
       <c r="C10">
-        <v>0.9031510312931061</v>
+        <v>1.001968875503422</v>
       </c>
       <c r="D10">
-        <v>0.04256059587785188</v>
+        <v>0.05459517034017836</v>
       </c>
       <c r="E10">
-        <v>0.07367107996182032</v>
+        <v>0.07034621890844939</v>
       </c>
       <c r="F10">
-        <v>1.130082533448544</v>
+        <v>0.9326562290498401</v>
       </c>
       <c r="G10">
-        <v>1.025885195311375</v>
+        <v>0.8442547679833439</v>
       </c>
       <c r="H10">
-        <v>0.001836036002405894</v>
+        <v>0.001498892972013</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.6098464620222472</v>
+        <v>0.4964124449494705</v>
       </c>
       <c r="K10">
-        <v>0.5029502141526123</v>
+        <v>0.3717599957915283</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1698923277839803</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1239344868841599</v>
       </c>
       <c r="N10">
-        <v>0.2643950492427223</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.6681306536286229</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.2708487908842301</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.6722654195910138</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.385009413675959</v>
+        <v>4.370234093888087</v>
       </c>
       <c r="C11">
-        <v>1.050601879684422</v>
+        <v>1.135920189066752</v>
       </c>
       <c r="D11">
-        <v>0.05407781649692112</v>
+        <v>0.07026925441935816</v>
       </c>
       <c r="E11">
-        <v>0.08534498625618525</v>
+        <v>0.08379679297977205</v>
       </c>
       <c r="F11">
-        <v>1.012694540680613</v>
+        <v>0.8180737226409747</v>
       </c>
       <c r="G11">
-        <v>0.884445471032933</v>
+        <v>0.770811427280151</v>
       </c>
       <c r="H11">
-        <v>0.02066194350352646</v>
+        <v>0.02019277534518338</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.5311488774915887</v>
+        <v>0.3711048157805266</v>
       </c>
       <c r="K11">
-        <v>0.3966482559384517</v>
+        <v>0.2848967983936852</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1358216956850917</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.09469428570186622</v>
       </c>
       <c r="N11">
-        <v>0.1835438805044234</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.64912139520073</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.1863668663090934</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.6520587091671715</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.538650621281192</v>
+        <v>4.523542900954396</v>
       </c>
       <c r="C12">
-        <v>1.15236693359634</v>
+        <v>1.222758062339722</v>
       </c>
       <c r="D12">
-        <v>0.06510071879360879</v>
+        <v>0.0832753247204252</v>
       </c>
       <c r="E12">
-        <v>0.1031078794478759</v>
+        <v>0.1025291383279914</v>
       </c>
       <c r="F12">
-        <v>0.8934688765154988</v>
+        <v>0.7174812367755266</v>
       </c>
       <c r="G12">
-        <v>0.7514128016871808</v>
+        <v>0.6815526216585539</v>
       </c>
       <c r="H12">
-        <v>0.05924824977515897</v>
+        <v>0.05876552948599567</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4607005317938473</v>
+        <v>0.3001976499125192</v>
       </c>
       <c r="K12">
-        <v>0.3148672946688436</v>
+        <v>0.2260174035658267</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1148676291759561</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.07212016810246524</v>
       </c>
       <c r="N12">
-        <v>0.1259894606950809</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.612372203326693</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.1267375051874353</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.6144780071042675</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.554883184074242</v>
+        <v>4.54151177894181</v>
       </c>
       <c r="C13">
-        <v>1.223520011608286</v>
+        <v>1.280008654311303</v>
       </c>
       <c r="D13">
-        <v>0.07618529903516702</v>
+        <v>0.09381730561601387</v>
       </c>
       <c r="E13">
-        <v>0.1261544483976529</v>
+        <v>0.12626828337973</v>
       </c>
       <c r="F13">
-        <v>0.7656848643554781</v>
+        <v>0.6240885340723139</v>
       </c>
       <c r="G13">
-        <v>0.6168914225182078</v>
+        <v>0.5698694875685959</v>
       </c>
       <c r="H13">
-        <v>0.1146151490532645</v>
+        <v>0.1142193321539082</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3922997023805124</v>
+        <v>0.2665989064175918</v>
       </c>
       <c r="K13">
-        <v>0.2467567093727538</v>
+        <v>0.1841291327216155</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1012925943165044</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.05386212342184749</v>
       </c>
       <c r="N13">
-        <v>0.0832458642214462</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.5601742801275762</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.08293609000422109</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.5617446969503703</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.503997979583232</v>
+        <v>4.492701243627437</v>
       </c>
       <c r="C14">
-        <v>1.259623205520995</v>
+        <v>1.306833734534905</v>
       </c>
       <c r="D14">
-        <v>0.08410828442334406</v>
+        <v>0.09999765038580222</v>
       </c>
       <c r="E14">
-        <v>0.1456366010069701</v>
+        <v>0.1461095534148882</v>
       </c>
       <c r="F14">
-        <v>0.6738741074224208</v>
+        <v>0.561610147998735</v>
       </c>
       <c r="G14">
-        <v>0.5240261437378848</v>
+        <v>0.4849585746644181</v>
       </c>
       <c r="H14">
-        <v>0.163604216178328</v>
+        <v>0.1633000490967902</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.346253233170728</v>
+        <v>0.2559920637353841</v>
       </c>
       <c r="K14">
-        <v>0.2068770972202714</v>
+        <v>0.1622646956511069</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.09467949316510449</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.04332791121456836</v>
       </c>
       <c r="N14">
-        <v>0.06246983285117302</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.5170995159171667</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.06182841535074779</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.5184032465649295</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.46188352165575</v>
+        <v>4.45151314316422</v>
       </c>
       <c r="C15">
-        <v>1.260784545436593</v>
+        <v>1.306191454307736</v>
       </c>
       <c r="D15">
-        <v>0.08574472646169795</v>
+        <v>0.1006928079273948</v>
       </c>
       <c r="E15">
-        <v>0.1502041282094382</v>
+        <v>0.1508230728396711</v>
       </c>
       <c r="F15">
-        <v>0.6492021758406281</v>
+        <v>0.5466818254843915</v>
       </c>
       <c r="G15">
-        <v>0.5001462766052498</v>
+        <v>0.4603477288973039</v>
       </c>
       <c r="H15">
-        <v>0.175951258047732</v>
+        <v>0.1756879006970848</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.33504007269228</v>
+        <v>0.2584031846968244</v>
       </c>
       <c r="K15">
-        <v>0.1987599812367264</v>
+        <v>0.1589086882728612</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.09385282161994724</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.04123776952201119</v>
       </c>
       <c r="N15">
-        <v>0.05847898014449981</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.503399339996939</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.05787661505113917</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.5046811576847148</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.177078888382482</v>
+        <v>4.170612001963434</v>
       </c>
       <c r="C16">
-        <v>1.182812032488357</v>
+        <v>1.232110489520949</v>
       </c>
       <c r="D16">
-        <v>0.08143885268586359</v>
+        <v>0.09249481625006695</v>
       </c>
       <c r="E16">
-        <v>0.141621033997442</v>
+        <v>0.1430139906797265</v>
       </c>
       <c r="F16">
-        <v>0.6249951835913663</v>
+        <v>0.5465088168165266</v>
       </c>
       <c r="G16">
-        <v>0.4835284229505419</v>
+        <v>0.4231369749231817</v>
       </c>
       <c r="H16">
-        <v>0.1624570719481682</v>
+        <v>0.1623576714677881</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3331308148543002</v>
+        <v>0.3038784051689447</v>
       </c>
       <c r="K16">
-        <v>0.2075965015689327</v>
+        <v>0.1737593026684401</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1003247111944567</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.04391385971766226</v>
       </c>
       <c r="N16">
-        <v>0.0569755545802515</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.472988614838215</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.05732855345994992</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.4746322493439123</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.986586851791401</v>
+        <v>3.981851132690679</v>
       </c>
       <c r="C17">
-        <v>1.104088456897955</v>
+        <v>1.159559371215153</v>
       </c>
       <c r="D17">
-        <v>0.07387289495143534</v>
+        <v>0.08352828118285771</v>
       </c>
       <c r="E17">
-        <v>0.1240967245592195</v>
+        <v>0.1257267068370567</v>
       </c>
       <c r="F17">
-        <v>0.6547754652485622</v>
+        <v>0.5780563224496049</v>
       </c>
       <c r="G17">
-        <v>0.5193831148074395</v>
+        <v>0.441283042067198</v>
       </c>
       <c r="H17">
-        <v>0.1243478544995611</v>
+        <v>0.1243049648714134</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3558595318938984</v>
+        <v>0.3430805455758019</v>
       </c>
       <c r="K17">
-        <v>0.2348750085904818</v>
+        <v>0.1970224055002454</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1094965761404723</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.0511633304718071</v>
       </c>
       <c r="N17">
-        <v>0.06512459423126771</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.4722532912085597</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.06640898958780994</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.4742777097843529</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.855582529221749</v>
+        <v>3.851147557103161</v>
       </c>
       <c r="C18">
-        <v>1.018340260339613</v>
+        <v>1.083913697205901</v>
       </c>
       <c r="D18">
-        <v>0.06354724408359402</v>
+        <v>0.0730074798461402</v>
       </c>
       <c r="E18">
-        <v>0.1012169487677497</v>
+        <v>0.1025157718130707</v>
       </c>
       <c r="F18">
-        <v>0.737064869553123</v>
+        <v>0.6461879762355807</v>
       </c>
       <c r="G18">
-        <v>0.6088536039709851</v>
+        <v>0.5061753271121177</v>
       </c>
       <c r="H18">
-        <v>0.07145461873388115</v>
+        <v>0.07142476944174803</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.4043962376559733</v>
+        <v>0.3906408140160664</v>
       </c>
       <c r="K18">
-        <v>0.2862295149535043</v>
+        <v>0.2349971347773021</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1239521715216103</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.06474841207299065</v>
       </c>
       <c r="N18">
-        <v>0.09067403196862855</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.4972768700755097</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.09323256438997163</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.4998505600187073</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.782608808234784</v>
+        <v>3.77731415047316</v>
       </c>
       <c r="C19">
-        <v>0.9366731530437846</v>
+        <v>1.014454240760358</v>
       </c>
       <c r="D19">
-        <v>0.05300417560043513</v>
+        <v>0.06265250915132015</v>
       </c>
       <c r="E19">
-        <v>0.08197587174348442</v>
+        <v>0.08213593814206277</v>
       </c>
       <c r="F19">
-        <v>0.8609404606738593</v>
+        <v>0.7437217089581623</v>
       </c>
       <c r="G19">
-        <v>0.7428418258129028</v>
+        <v>0.6073541148195005</v>
       </c>
       <c r="H19">
-        <v>0.02637310370784007</v>
+        <v>0.02632717460438272</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.4738303672877322</v>
+        <v>0.4472616828472127</v>
       </c>
       <c r="K19">
-        <v>0.361355791255523</v>
+        <v>0.2878566847580366</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.143634675767256</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.08474651062408967</v>
       </c>
       <c r="N19">
-        <v>0.1408092844758571</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.5421142934557182</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.1451002598319278</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.5453798679025823</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.873813226472237</v>
+        <v>3.864321007834803</v>
       </c>
       <c r="C20">
-        <v>0.8668267679244366</v>
+        <v>0.9635767526124823</v>
       </c>
       <c r="D20">
-        <v>0.0416705101581698</v>
+        <v>0.05218526088303577</v>
       </c>
       <c r="E20">
-        <v>0.07187751141014376</v>
+        <v>0.06884717674613938</v>
       </c>
       <c r="F20">
-        <v>1.097424223723721</v>
+        <v>0.9189989005164989</v>
       </c>
       <c r="G20">
-        <v>0.9968611680437505</v>
+        <v>0.8077650044124312</v>
       </c>
       <c r="H20">
-        <v>0.001217015639194852</v>
+        <v>0.001008829793984756</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.5992468573616065</v>
+        <v>0.5220774035642393</v>
       </c>
       <c r="K20">
-        <v>0.4991384322772561</v>
+        <v>0.377238752732076</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1743178806815067</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1224600007591476</v>
       </c>
       <c r="N20">
-        <v>0.2567003846917544</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.6417915352456163</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.2637336742919985</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.6460642451676293</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.364001136375805</v>
+        <v>4.345977714557591</v>
       </c>
       <c r="C21">
-        <v>0.9602443000952405</v>
+        <v>1.058094524641888</v>
       </c>
       <c r="D21">
-        <v>0.04287347301743694</v>
+        <v>0.0590007352402111</v>
       </c>
       <c r="E21">
-        <v>0.07685564259491429</v>
+        <v>0.07229023246507893</v>
       </c>
       <c r="F21">
-        <v>1.223660335612038</v>
+        <v>0.9642934089039983</v>
       </c>
       <c r="G21">
-        <v>1.115802353007069</v>
+        <v>0.9676171649983445</v>
       </c>
       <c r="H21">
-        <v>0.003209206907982098</v>
+        <v>0.002479407568224512</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.6474875128731412</v>
+        <v>0.4143622542089105</v>
       </c>
       <c r="K21">
-        <v>0.5308961183667975</v>
+        <v>0.3668394020884662</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1634396400450342</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1292863411376146</v>
       </c>
       <c r="N21">
-        <v>0.2966103171352188</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.7295395254849879</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.3017468948891349</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.7331586870883626</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.688643286963327</v>
+        <v>4.664400605551123</v>
       </c>
       <c r="C22">
-        <v>1.026302471078395</v>
+        <v>1.122817101846294</v>
       </c>
       <c r="D22">
-        <v>0.0441367552169325</v>
+        <v>0.06442157283946415</v>
       </c>
       <c r="E22">
-        <v>0.08026151612688137</v>
+        <v>0.07484739170715038</v>
       </c>
       <c r="F22">
-        <v>1.298197216120769</v>
+        <v>0.9844191732352954</v>
       </c>
       <c r="G22">
-        <v>1.184414521096471</v>
+        <v>1.073089243795039</v>
       </c>
       <c r="H22">
-        <v>0.00505861805448593</v>
+        <v>0.003844703023730189</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.6744501396374574</v>
+        <v>0.3436301021998389</v>
       </c>
       <c r="K22">
-        <v>0.5458959848213638</v>
+        <v>0.3549358386310075</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1547324987323826</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1319954915149211</v>
       </c>
       <c r="N22">
-        <v>0.3166815711678908</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.7834006081015943</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.3202483819348032</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.7863794992233224</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.515203198323889</v>
+        <v>4.494460644990738</v>
       </c>
       <c r="C23">
-        <v>0.9910032475582682</v>
+        <v>1.090413372263896</v>
       </c>
       <c r="D23">
-        <v>0.04346351449376584</v>
+        <v>0.06109636092119075</v>
       </c>
       <c r="E23">
-        <v>0.07843697006458017</v>
+        <v>0.07353072302745645</v>
       </c>
       <c r="F23">
-        <v>1.258174952022003</v>
+        <v>0.979046545770359</v>
       </c>
       <c r="G23">
-        <v>1.147551417058821</v>
+        <v>1.007870749233831</v>
       </c>
       <c r="H23">
-        <v>0.004021581960519161</v>
+        <v>0.003089810104302537</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.6599330557555163</v>
+        <v>0.3936960558859397</v>
       </c>
       <c r="K23">
-        <v>0.5377621735260973</v>
+        <v>0.3637236400892192</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1601785517468919</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1315428775334446</v>
       </c>
       <c r="N23">
-        <v>0.3059518729217672</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.7546254446448231</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.310551384934044</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.7580578611560185</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.861807452701726</v>
+        <v>3.852250768100873</v>
       </c>
       <c r="C24">
-        <v>0.8581633209944073</v>
+        <v>0.9558032142838044</v>
       </c>
       <c r="D24">
-        <v>0.0408916984331249</v>
+        <v>0.05127730164006294</v>
       </c>
       <c r="E24">
-        <v>0.07166004954900007</v>
+        <v>0.06837539580757479</v>
       </c>
       <c r="F24">
-        <v>1.111631105066024</v>
+        <v>0.9302816375859493</v>
       </c>
       <c r="G24">
-        <v>1.013030835723114</v>
+        <v>0.819418806971882</v>
       </c>
       <c r="H24">
-        <v>0.001144394488727274</v>
+        <v>0.0009310464859804135</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.6076155260277432</v>
+        <v>0.529616859666902</v>
       </c>
       <c r="K24">
-        <v>0.5096570753477252</v>
+        <v>0.3847693113641384</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1771596373708242</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1252523400187613</v>
       </c>
       <c r="N24">
-        <v>0.265663678156784</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.6462205320020118</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.2729708960386859</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.6505727832692898</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.162620835155337</v>
+        <v>3.161331632169379</v>
       </c>
       <c r="C25">
-        <v>0.7161663712481925</v>
+        <v>0.7883720929424101</v>
       </c>
       <c r="D25">
-        <v>0.03807002342540855</v>
+        <v>0.04508704052052792</v>
       </c>
       <c r="E25">
-        <v>0.06454353467811424</v>
+        <v>0.06226900240830968</v>
       </c>
       <c r="F25">
-        <v>0.9628197004034007</v>
+        <v>0.8228648812726505</v>
       </c>
       <c r="G25">
-        <v>0.8772732239473413</v>
+        <v>0.7141543694834098</v>
       </c>
       <c r="H25">
-        <v>9.197027486251841E-07</v>
+        <v>2.337949934094752E-06</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5561670528798004</v>
+        <v>0.5091777078592798</v>
       </c>
       <c r="K25">
-        <v>0.4844288156857317</v>
+        <v>0.3824000209780749</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1864664276721832</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1106798149846746</v>
       </c>
       <c r="N25">
-        <v>0.2227656555458495</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.5302247777084617</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.2307303675047834</v>
       </c>
       <c r="Q25">
+        <v>0.5341681169246471</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
